--- a/springboot_easyexcle/withHead.xlsx
+++ b/springboot_easyexcle/withHead.xlsx
@@ -88,1212 +88,1717 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>姓名</t>
+          <t>第一列</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>年龄</t>
+          <t>第二列</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>第三列</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>name0</t>
+          <t>item00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>age0</t>
+          <t>item10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>item20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>name1</t>
+          <t>item01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>age1</t>
+          <t>item11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>item21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>name2</t>
+          <t>item02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>age2</t>
+          <t>item12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>item22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>name3</t>
+          <t>item03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>age3</t>
+          <t>item13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>item23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>name4</t>
+          <t>item04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>age4</t>
+          <t>item14</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>item24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>name5</t>
+          <t>item05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>age5</t>
+          <t>item15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>item25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>name6</t>
+          <t>item06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>age6</t>
+          <t>item16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>item26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>name7</t>
+          <t>item07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>age7</t>
+          <t>item17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>item27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>name8</t>
+          <t>item08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>age8</t>
+          <t>item18</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>item28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>name9</t>
+          <t>item09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>age9</t>
+          <t>item19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>item29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>name10</t>
+          <t>item010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>age10</t>
+          <t>item110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>item210</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>name11</t>
+          <t>item011</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>age11</t>
+          <t>item111</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>item211</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>name12</t>
+          <t>item012</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>age12</t>
+          <t>item112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>item212</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>name13</t>
+          <t>item013</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>age13</t>
+          <t>item113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>item213</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>name14</t>
+          <t>item014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>age14</t>
+          <t>item114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>item214</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>name15</t>
+          <t>item015</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>age15</t>
+          <t>item115</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>item215</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>name16</t>
+          <t>item016</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>age16</t>
+          <t>item116</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>item216</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>name17</t>
+          <t>item017</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>age17</t>
+          <t>item117</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>item217</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>name18</t>
+          <t>item018</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>age18</t>
+          <t>item118</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>item218</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>name19</t>
+          <t>item019</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>age19</t>
+          <t>item119</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>item219</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>name20</t>
+          <t>item020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>age20</t>
+          <t>item120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>item220</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>name21</t>
+          <t>item021</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>age21</t>
+          <t>item121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>item221</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>name22</t>
+          <t>item022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>age22</t>
+          <t>item122</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>item222</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>name23</t>
+          <t>item023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>age23</t>
+          <t>item123</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>item223</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>name24</t>
+          <t>item024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>age24</t>
+          <t>item124</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>item224</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>name25</t>
+          <t>item025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>age25</t>
+          <t>item125</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>item225</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>name26</t>
+          <t>item026</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>age26</t>
+          <t>item126</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>item226</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>name27</t>
+          <t>item027</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>age27</t>
+          <t>item127</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>item227</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>name28</t>
+          <t>item028</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>age28</t>
+          <t>item128</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>item228</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>name29</t>
+          <t>item029</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>age29</t>
+          <t>item129</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>item229</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>name30</t>
+          <t>item030</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>age30</t>
+          <t>item130</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>item230</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>name31</t>
+          <t>item031</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>age31</t>
+          <t>item131</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>item231</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>name32</t>
+          <t>item032</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>age32</t>
+          <t>item132</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>item232</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>name33</t>
+          <t>item033</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>age33</t>
+          <t>item133</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>item233</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>name34</t>
+          <t>item034</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>age34</t>
+          <t>item134</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>item234</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>name35</t>
+          <t>item035</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>age35</t>
+          <t>item135</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>item235</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>name36</t>
+          <t>item036</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>age36</t>
+          <t>item136</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>item236</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>name37</t>
+          <t>item037</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>age37</t>
+          <t>item137</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>item237</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>name38</t>
+          <t>item038</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>age38</t>
+          <t>item138</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>item238</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>name39</t>
+          <t>item039</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>age39</t>
+          <t>item139</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>item239</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>name40</t>
+          <t>item040</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>age40</t>
+          <t>item140</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>item240</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>name41</t>
+          <t>item041</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>age41</t>
+          <t>item141</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>item241</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>name42</t>
+          <t>item042</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>age42</t>
+          <t>item142</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>item242</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>name43</t>
+          <t>item043</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>age43</t>
+          <t>item143</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>item243</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>name44</t>
+          <t>item044</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>age44</t>
+          <t>item144</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>item244</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>name45</t>
+          <t>item045</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>age45</t>
+          <t>item145</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>item245</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>name46</t>
+          <t>item046</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>age46</t>
+          <t>item146</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>item246</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>name47</t>
+          <t>item047</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>age47</t>
+          <t>item147</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>item247</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>name48</t>
+          <t>item048</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>age48</t>
+          <t>item148</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>item248</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>name49</t>
+          <t>item049</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>age49</t>
+          <t>item149</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>item249</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>name50</t>
+          <t>item050</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>age50</t>
+          <t>item150</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>item250</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>name51</t>
+          <t>item051</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>age51</t>
+          <t>item151</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>item251</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>name52</t>
+          <t>item052</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>age52</t>
+          <t>item152</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>item252</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>name53</t>
+          <t>item053</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>age53</t>
+          <t>item153</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>item253</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>name54</t>
+          <t>item054</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>age54</t>
+          <t>item154</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>item254</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>name55</t>
+          <t>item055</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>age55</t>
+          <t>item155</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>item255</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>name56</t>
+          <t>item056</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>age56</t>
+          <t>item156</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>item256</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>name57</t>
+          <t>item057</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>age57</t>
+          <t>item157</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>item257</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>name58</t>
+          <t>item058</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>age58</t>
+          <t>item158</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>item258</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>name59</t>
+          <t>item059</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>age59</t>
+          <t>item159</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>item259</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>name60</t>
+          <t>item060</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>age60</t>
+          <t>item160</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>item260</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>name61</t>
+          <t>item061</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>age61</t>
+          <t>item161</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>item261</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>name62</t>
+          <t>item062</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>age62</t>
+          <t>item162</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>item262</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>name63</t>
+          <t>item063</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>age63</t>
+          <t>item163</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>item263</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>name64</t>
+          <t>item064</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>age64</t>
+          <t>item164</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>item264</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>name65</t>
+          <t>item065</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>age65</t>
+          <t>item165</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>item265</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>name66</t>
+          <t>item066</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>age66</t>
+          <t>item166</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>item266</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>name67</t>
+          <t>item067</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>age67</t>
+          <t>item167</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>item267</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>name68</t>
+          <t>item068</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>age68</t>
+          <t>item168</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>item268</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>name69</t>
+          <t>item069</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>age69</t>
+          <t>item169</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>item269</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>name70</t>
+          <t>item070</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>age70</t>
+          <t>item170</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>item270</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>name71</t>
+          <t>item071</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>age71</t>
+          <t>item171</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>item271</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>name72</t>
+          <t>item072</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>age72</t>
+          <t>item172</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>item272</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>name73</t>
+          <t>item073</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>age73</t>
+          <t>item173</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>item273</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>name74</t>
+          <t>item074</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>age74</t>
+          <t>item174</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>item274</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>name75</t>
+          <t>item075</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>age75</t>
+          <t>item175</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>item275</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>name76</t>
+          <t>item076</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>age76</t>
+          <t>item176</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>item276</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>name77</t>
+          <t>item077</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>age77</t>
+          <t>item177</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>item277</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>name78</t>
+          <t>item078</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>age78</t>
+          <t>item178</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>item278</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>name79</t>
+          <t>item079</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>age79</t>
+          <t>item179</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>item279</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>name80</t>
+          <t>item080</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>age80</t>
+          <t>item180</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>item280</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>name81</t>
+          <t>item081</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>age81</t>
+          <t>item181</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>item281</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>name82</t>
+          <t>item082</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>age82</t>
+          <t>item182</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>item282</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>name83</t>
+          <t>item083</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>age83</t>
+          <t>item183</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>item283</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>name84</t>
+          <t>item084</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>age84</t>
+          <t>item184</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>item284</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>name85</t>
+          <t>item085</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>age85</t>
+          <t>item185</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>item285</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>name86</t>
+          <t>item086</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>age86</t>
+          <t>item186</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>item286</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>name87</t>
+          <t>item087</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>age87</t>
+          <t>item187</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>item287</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>name88</t>
+          <t>item088</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>age88</t>
+          <t>item188</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>item288</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>name89</t>
+          <t>item089</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>age89</t>
+          <t>item189</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>item289</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>name90</t>
+          <t>item090</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>age90</t>
+          <t>item190</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>item290</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>name91</t>
+          <t>item091</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>age91</t>
+          <t>item191</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>item291</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>name92</t>
+          <t>item092</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>age92</t>
+          <t>item192</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>item292</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>name93</t>
+          <t>item093</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>age93</t>
+          <t>item193</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>item293</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>name94</t>
+          <t>item094</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>age94</t>
+          <t>item194</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>item294</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>name95</t>
+          <t>item095</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>age95</t>
+          <t>item195</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>item295</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>name96</t>
+          <t>item096</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>age96</t>
+          <t>item196</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>item296</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>name97</t>
+          <t>item097</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>age97</t>
+          <t>item197</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>item297</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>name98</t>
+          <t>item098</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>age98</t>
+          <t>item198</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>item298</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>name99</t>
+          <t>item099</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>age99</t>
+          <t>item199</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>item299</t>
         </is>
       </c>
     </row>
